--- a/healthman-mock/v2/data/classes/土木工程学院.xlsx
+++ b/healthman-mock/v2/data/classes/土木工程学院.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -452,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>录入年份</t>
+          <t>年级</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>年级</t>
+          <t>教师工号</t>
         </is>
       </c>
     </row>
@@ -477,12 +476,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>2019</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000445</t>
         </is>
       </c>
     </row>
@@ -502,12 +503,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>2019</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000756</t>
         </is>
       </c>
     </row>
@@ -527,12 +530,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>2019</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000893</t>
         </is>
       </c>
     </row>
@@ -552,12 +557,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>2019</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000611</t>
         </is>
       </c>
     </row>
@@ -577,12 +584,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>2019</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000243</t>
         </is>
       </c>
     </row>
@@ -602,12 +611,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>2019</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000750</t>
         </is>
       </c>
     </row>
@@ -627,12 +638,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>2019</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000289</t>
         </is>
       </c>
     </row>
@@ -652,12 +665,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>2019</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000136</t>
         </is>
       </c>
     </row>
@@ -677,12 +692,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>2019</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000585</t>
         </is>
       </c>
     </row>
@@ -702,12 +719,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>2019</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000021</t>
         </is>
       </c>
     </row>
@@ -727,12 +746,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>2019</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000191</t>
         </is>
       </c>
     </row>
@@ -752,12 +773,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>2019</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000124</t>
         </is>
       </c>
     </row>
@@ -777,12 +800,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>2019</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000274</t>
         </is>
       </c>
     </row>
@@ -802,12 +827,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>2019</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000624</t>
         </is>
       </c>
     </row>
@@ -827,12 +854,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>2019</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000319</t>
         </is>
       </c>
     </row>
@@ -852,12 +881,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>2019</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>001019</t>
         </is>
       </c>
     </row>
@@ -877,12 +908,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>2019</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000305</t>
         </is>
       </c>
     </row>
@@ -902,12 +935,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>2019</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000992</t>
         </is>
       </c>
     </row>
@@ -927,12 +962,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>2019</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000353</t>
         </is>
       </c>
     </row>
@@ -952,12 +989,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>2019</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000017</t>
         </is>
       </c>
     </row>
@@ -977,12 +1016,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>2019</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000891</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1043,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>2019</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000553</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1070,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>2019</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000088</t>
         </is>
       </c>
     </row>
@@ -1052,12 +1097,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>2019</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000252</t>
         </is>
       </c>
     </row>
@@ -1077,12 +1124,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>2019</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000020</t>
         </is>
       </c>
     </row>
@@ -1102,12 +1151,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>2019</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000205</t>
         </is>
       </c>
     </row>
@@ -1127,12 +1178,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>2019</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000201</t>
         </is>
       </c>
     </row>
@@ -1152,12 +1205,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>2019</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000741</t>
         </is>
       </c>
     </row>
@@ -1177,12 +1232,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>2019</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000458</t>
         </is>
       </c>
     </row>
@@ -1202,12 +1259,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>2019</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000636</t>
         </is>
       </c>
     </row>
@@ -1227,12 +1286,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>2019</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000725</t>
         </is>
       </c>
     </row>
@@ -1252,12 +1313,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>2019</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000439</t>
         </is>
       </c>
     </row>
@@ -1277,12 +1340,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>2019</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000292</t>
         </is>
       </c>
     </row>
@@ -1302,12 +1367,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>2019</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000776</t>
         </is>
       </c>
     </row>
@@ -1327,12 +1394,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>2019</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000159</t>
         </is>
       </c>
     </row>
@@ -1352,12 +1421,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>2019</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000848</t>
         </is>
       </c>
     </row>
@@ -1377,12 +1448,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>2020</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000799</t>
         </is>
       </c>
     </row>
@@ -1402,12 +1475,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>2020</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000996</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1502,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>2020</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000269</t>
         </is>
       </c>
     </row>
@@ -1452,12 +1529,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>2020</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000102</t>
         </is>
       </c>
     </row>
@@ -1477,12 +1556,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>2020</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000090</t>
         </is>
       </c>
     </row>
@@ -1502,12 +1583,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>2020</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000671</t>
         </is>
       </c>
     </row>
@@ -1527,12 +1610,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>2020</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000577</t>
         </is>
       </c>
     </row>
@@ -1552,12 +1637,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>2020</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000967</t>
         </is>
       </c>
     </row>
@@ -1577,12 +1664,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>2020</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>001028</t>
         </is>
       </c>
     </row>
@@ -1602,12 +1691,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>2020</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000655</t>
         </is>
       </c>
     </row>
@@ -1627,12 +1718,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>2020</v>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000907</t>
         </is>
       </c>
     </row>
@@ -1652,12 +1745,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>2020</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000015</t>
         </is>
       </c>
     </row>
@@ -1677,12 +1772,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>2020</v>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000328</t>
         </is>
       </c>
     </row>
@@ -1702,12 +1799,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>2020</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000701</t>
         </is>
       </c>
     </row>
@@ -1727,12 +1826,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>2020</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000569</t>
         </is>
       </c>
     </row>
@@ -1752,12 +1853,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>2020</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000849</t>
         </is>
       </c>
     </row>
@@ -1777,12 +1880,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>2020</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000003</t>
         </is>
       </c>
     </row>
@@ -1802,12 +1907,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>2020</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000087</t>
         </is>
       </c>
     </row>
@@ -1827,12 +1934,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>2020</v>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000711</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1961,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>2020</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000032</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1988,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>2020</v>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000098</t>
         </is>
       </c>
     </row>
@@ -1902,12 +2015,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>2020</v>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000652</t>
         </is>
       </c>
     </row>
@@ -1927,12 +2042,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>2020</v>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000384</t>
         </is>
       </c>
     </row>
@@ -1952,12 +2069,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>2020</v>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000023</t>
         </is>
       </c>
     </row>
@@ -1977,12 +2096,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>2020</v>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000728</t>
         </is>
       </c>
     </row>
@@ -2002,12 +2123,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>2020</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000562</t>
         </is>
       </c>
     </row>
@@ -2027,12 +2150,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>2020</v>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000698</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2177,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>2020</v>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000837</t>
         </is>
       </c>
     </row>
@@ -2077,12 +2204,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v>2020</v>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000811</t>
         </is>
       </c>
     </row>
@@ -2102,12 +2231,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>2020</v>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000993</t>
         </is>
       </c>
     </row>
@@ -2127,12 +2258,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D68" t="n">
-        <v>2020</v>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000462</t>
         </is>
       </c>
     </row>
@@ -2152,12 +2285,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>2020</v>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000204</t>
         </is>
       </c>
     </row>
@@ -2177,12 +2312,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>2020</v>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000255</t>
         </is>
       </c>
     </row>
@@ -2202,12 +2339,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D71" t="n">
-        <v>2020</v>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000635</t>
         </is>
       </c>
     </row>
@@ -2227,12 +2366,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>2020</v>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000673</t>
         </is>
       </c>
     </row>
@@ -2252,12 +2393,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D73" t="n">
-        <v>2021</v>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000659</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2420,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D74" t="n">
-        <v>2021</v>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000407</t>
         </is>
       </c>
     </row>
@@ -2302,12 +2447,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v>2021</v>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000212</t>
         </is>
       </c>
     </row>
@@ -2327,12 +2474,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D76" t="n">
-        <v>2021</v>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000258</t>
         </is>
       </c>
     </row>
@@ -2352,12 +2501,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D77" t="n">
-        <v>2021</v>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000092</t>
         </is>
       </c>
     </row>
@@ -2377,12 +2528,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D78" t="n">
-        <v>2021</v>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000818</t>
         </is>
       </c>
     </row>
@@ -2402,12 +2555,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>2021</v>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000024</t>
         </is>
       </c>
     </row>
@@ -2427,12 +2582,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D80" t="n">
-        <v>2021</v>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000064</t>
         </is>
       </c>
     </row>
@@ -2452,12 +2609,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D81" t="n">
-        <v>2021</v>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000481</t>
         </is>
       </c>
     </row>
@@ -2477,12 +2636,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v>2021</v>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000478</t>
         </is>
       </c>
     </row>
@@ -2502,12 +2663,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>2021</v>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000214</t>
         </is>
       </c>
     </row>
@@ -2527,12 +2690,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>2021</v>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>001028</t>
         </is>
       </c>
     </row>
@@ -2552,12 +2717,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>2021</v>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000197</t>
         </is>
       </c>
     </row>
@@ -2577,12 +2744,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>2021</v>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000383</t>
         </is>
       </c>
     </row>
@@ -2602,12 +2771,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D87" t="n">
-        <v>2021</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000084</t>
         </is>
       </c>
     </row>
@@ -2627,12 +2798,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>2021</v>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000694</t>
         </is>
       </c>
     </row>
@@ -2652,12 +2825,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>2021</v>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000619</t>
         </is>
       </c>
     </row>
@@ -2677,12 +2852,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D90" t="n">
-        <v>2021</v>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000652</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2879,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D91" t="n">
-        <v>2021</v>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000577</t>
         </is>
       </c>
     </row>
@@ -2727,12 +2906,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D92" t="n">
-        <v>2021</v>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000831</t>
         </is>
       </c>
     </row>
@@ -2752,12 +2933,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D93" t="n">
-        <v>2021</v>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000343</t>
         </is>
       </c>
     </row>
@@ -2777,12 +2960,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D94" t="n">
-        <v>2021</v>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000569</t>
         </is>
       </c>
     </row>
@@ -2802,12 +2987,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D95" t="n">
-        <v>2021</v>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000943</t>
         </is>
       </c>
     </row>
@@ -2827,12 +3014,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D96" t="n">
-        <v>2021</v>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000684</t>
         </is>
       </c>
     </row>
@@ -2852,12 +3041,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D97" t="n">
-        <v>2021</v>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000222</t>
         </is>
       </c>
     </row>
@@ -2877,12 +3068,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D98" t="n">
-        <v>2021</v>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000537</t>
         </is>
       </c>
     </row>
@@ -2902,12 +3095,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D99" t="n">
-        <v>2021</v>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000471</t>
         </is>
       </c>
     </row>
@@ -2927,12 +3122,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D100" t="n">
-        <v>2021</v>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000631</t>
         </is>
       </c>
     </row>
@@ -2952,12 +3149,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D101" t="n">
-        <v>2021</v>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000987</t>
         </is>
       </c>
     </row>
@@ -2977,12 +3176,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D102" t="n">
-        <v>2021</v>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000485</t>
         </is>
       </c>
     </row>
@@ -3002,12 +3203,14 @@
           <t>土木工程学院</t>
         </is>
       </c>
-      <c r="D103" t="n">
-        <v>2021</v>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000305</t>
         </is>
       </c>
     </row>

--- a/healthman-mock/v2/data/classes/土木工程学院.xlsx
+++ b/healthman-mock/v2/data/classes/土木工程学院.xlsx
@@ -50,6 +50,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -483,7 +484,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>000445</t>
+          <t>000068</t>
         </is>
       </c>
     </row>
@@ -510,7 +511,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>000756</t>
+          <t>000067</t>
         </is>
       </c>
     </row>
@@ -537,7 +538,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>000893</t>
+          <t>000157</t>
         </is>
       </c>
     </row>
@@ -564,7 +565,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>000611</t>
+          <t>000136</t>
         </is>
       </c>
     </row>
@@ -591,7 +592,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>000243</t>
+          <t>000108</t>
         </is>
       </c>
     </row>
@@ -618,7 +619,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>000750</t>
+          <t>000042</t>
         </is>
       </c>
     </row>
@@ -645,7 +646,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>000289</t>
+          <t>000193</t>
         </is>
       </c>
     </row>
@@ -672,7 +673,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>000136</t>
+          <t>000052</t>
         </is>
       </c>
     </row>
@@ -699,7 +700,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>000585</t>
+          <t>000198</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>000021</t>
+          <t>000166</t>
         </is>
       </c>
     </row>
@@ -753,7 +754,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>000191</t>
+          <t>000227</t>
         </is>
       </c>
     </row>
@@ -780,7 +781,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>000124</t>
+          <t>000159</t>
         </is>
       </c>
     </row>
@@ -807,7 +808,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>000274</t>
+          <t>000075</t>
         </is>
       </c>
     </row>
@@ -834,7 +835,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>000624</t>
+          <t>000193</t>
         </is>
       </c>
     </row>
@@ -861,7 +862,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>000319</t>
+          <t>000083</t>
         </is>
       </c>
     </row>
@@ -888,7 +889,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>001019</t>
+          <t>000016</t>
         </is>
       </c>
     </row>
@@ -915,7 +916,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>000305</t>
+          <t>000148</t>
         </is>
       </c>
     </row>
@@ -942,7 +943,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>000992</t>
+          <t>000196</t>
         </is>
       </c>
     </row>
@@ -969,7 +970,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>000353</t>
+          <t>000118</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>000017</t>
+          <t>000022</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1024,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>000891</t>
+          <t>000137</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1051,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>000553</t>
+          <t>000002</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1078,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>000088</t>
+          <t>000022</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1105,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>000252</t>
+          <t>000182</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1132,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>000020</t>
+          <t>000052</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1159,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>000205</t>
+          <t>000017</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1186,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>000201</t>
+          <t>000155</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1213,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>000741</t>
+          <t>000201</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1240,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>000458</t>
+          <t>000088</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>000636</t>
+          <t>000177</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1294,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>000725</t>
+          <t>000141</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1321,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>000439</t>
+          <t>000052</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1348,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>000292</t>
+          <t>000172</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1375,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>000776</t>
+          <t>000064</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1402,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>000159</t>
+          <t>000198</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1429,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>000848</t>
+          <t>000221</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1456,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>000799</t>
+          <t>000155</t>
         </is>
       </c>
     </row>
@@ -1482,7 +1483,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>000996</t>
+          <t>000021</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1510,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>000269</t>
+          <t>000191</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>000102</t>
+          <t>000141</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1564,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>000090</t>
+          <t>000164</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1591,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>000671</t>
+          <t>000102</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1618,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>000577</t>
+          <t>000212</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1645,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>000967</t>
+          <t>000166</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1672,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>001028</t>
+          <t>000101</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1699,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>000655</t>
+          <t>000076</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1726,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>000907</t>
+          <t>000008</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1753,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>000015</t>
+          <t>000020</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1780,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>000328</t>
+          <t>000008</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>000701</t>
+          <t>000080</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1834,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>000569</t>
+          <t>000199</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1861,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>000849</t>
+          <t>000015</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1888,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>000003</t>
+          <t>000015</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1915,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>000087</t>
+          <t>000023</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1942,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>000711</t>
+          <t>000139</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1969,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>000032</t>
+          <t>000188</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1996,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>000098</t>
+          <t>000190</t>
         </is>
       </c>
     </row>
@@ -2022,7 +2023,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>000652</t>
+          <t>000196</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2050,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>000384</t>
+          <t>000103</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>000023</t>
+          <t>000004</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2104,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>000728</t>
+          <t>000072</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2131,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>000562</t>
+          <t>000192</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2158,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>000698</t>
+          <t>000057</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2185,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>000837</t>
+          <t>000090</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2212,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>000811</t>
+          <t>000022</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2239,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>000993</t>
+          <t>000099</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2266,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>000462</t>
+          <t>000144</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2293,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>000204</t>
+          <t>000046</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2320,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>000255</t>
+          <t>000073</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>000635</t>
+          <t>000216</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2374,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>000673</t>
+          <t>000210</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2401,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>000659</t>
+          <t>000228</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2428,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>000407</t>
+          <t>000001</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2455,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>000212</t>
+          <t>000177</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2482,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>000258</t>
+          <t>000151</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2509,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>000092</t>
+          <t>000105</t>
         </is>
       </c>
     </row>
@@ -2535,7 +2536,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>000818</t>
+          <t>000011</t>
         </is>
       </c>
     </row>
@@ -2562,7 +2563,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>000024</t>
+          <t>000026</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2590,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>000064</t>
+          <t>000072</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>000481</t>
+          <t>000152</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2644,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>000478</t>
+          <t>000082</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2671,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>000214</t>
+          <t>000108</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2698,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>001028</t>
+          <t>000134</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2725,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>000197</t>
+          <t>000072</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2752,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>000383</t>
+          <t>000075</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2779,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>000084</t>
+          <t>000207</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2806,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>000694</t>
+          <t>000159</t>
         </is>
       </c>
     </row>
@@ -2832,7 +2833,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>000619</t>
+          <t>000046</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2860,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>000652</t>
+          <t>000056</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>000577</t>
+          <t>000079</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2914,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>000831</t>
+          <t>000214</t>
         </is>
       </c>
     </row>
@@ -2940,7 +2941,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>000343</t>
+          <t>000072</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2968,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>000569</t>
+          <t>000223</t>
         </is>
       </c>
     </row>
@@ -2994,7 +2995,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>000943</t>
+          <t>000153</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3022,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>000684</t>
+          <t>000065</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3049,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>000222</t>
+          <t>000163</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3076,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>000537</t>
+          <t>000217</t>
         </is>
       </c>
     </row>
@@ -3102,7 +3103,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>000471</t>
+          <t>000148</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3130,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>000631</t>
+          <t>000041</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>000987</t>
+          <t>000015</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3184,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>000485</t>
+          <t>000201</t>
         </is>
       </c>
     </row>
@@ -3210,7 +3211,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>000305</t>
+          <t>000121</t>
         </is>
       </c>
     </row>
